--- a/docs/ValueSet-ValueSet-birth-delivery-occurred.xlsx
+++ b/docs/ValueSet-ValueSet-birth-delivery-occurred.xlsx
@@ -44,7 +44,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ValueSet - Birth Delivery Occurred</t>
+    <t>Birth Delivery Occurred</t>
   </si>
   <si>
     <t>Status</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T11:56:10-05:00</t>
+    <t>2024-02-27T09:44:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ValueSet-birth-delivery-occurred.xlsx
+++ b/docs/ValueSet-ValueSet-birth-delivery-occurred.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ValueSet-birth-delivery-occurred.xlsx
+++ b/docs/ValueSet-ValueSet-birth-delivery-occurred.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
